--- a/1/6/1/2/Balanza de pagos 2003 a 2021 - Trimestral.xlsx
+++ b/1/6/1/2/Balanza de pagos 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>Serie</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -608,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1863,16 +1866,33 @@
         <v>78</v>
       </c>
       <c r="B74">
-        <v>-1553.7</v>
+        <v>-1836.8</v>
       </c>
       <c r="C74">
-        <v>3957.2</v>
+        <v>4265.5</v>
       </c>
       <c r="D74">
-        <v>-1305.6</v>
+        <v>124.7</v>
       </c>
       <c r="E74">
-        <v>5428.2</v>
+        <v>11234.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75">
+        <v>-2637.7</v>
+      </c>
+      <c r="C75">
+        <v>4174.2</v>
+      </c>
+      <c r="D75">
+        <v>-12448</v>
+      </c>
+      <c r="E75">
+        <v>13972.8</v>
       </c>
     </row>
   </sheetData>
